--- a/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries.xlsx
+++ b/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13020" activeTab="2"/>
+    <workbookView windowWidth="26860" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_type" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="667">
   <si>
     <t>type</t>
   </si>
@@ -286,6 +286,9 @@
     <t>Åland Islands</t>
   </si>
   <si>
+    <t>http://www.wikidata.org/entity/Q7671680</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -1966,7 +1969,10 @@
     <t>XE</t>
   </si>
   <si>
-    <t>Belgium (historical)</t>
+    <t>Eurozone</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q8268</t>
   </si>
   <si>
     <t>XG</t>
@@ -2039,7 +2045,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,6 +2072,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.15"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2545,13 +2558,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2560,119 +2570,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2683,6 +2696,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3243,15 +3259,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -3259,7 +3275,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -3267,7 +3283,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -3275,7 +3291,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -3283,12 +3299,12 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -3296,7 +3312,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -3304,7 +3320,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -3312,7 +3328,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -3320,8 +3336,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3357,7 +3373,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
@@ -3365,7 +3381,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -3373,7 +3389,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
@@ -3381,7 +3397,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -3389,7 +3405,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
@@ -3397,7 +3413,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
@@ -3408,7 +3424,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
@@ -3419,7 +3435,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -3427,7 +3443,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
@@ -3435,7 +3451,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
@@ -3454,11 +3470,11 @@
   <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D205" sqref="D205"/>
+      <selection pane="bottomRight" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -3624,137 +3640,143 @@
       <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3762,13 +3784,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3776,13 +3798,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3790,13 +3812,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3804,13 +3826,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3818,13 +3840,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3832,13 +3854,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3846,13 +3868,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3860,13 +3882,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3874,13 +3896,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3888,13 +3910,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3902,13 +3924,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3916,13 +3938,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3930,13 +3952,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3944,13 +3966,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3958,13 +3980,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3972,13 +3994,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3986,13 +4008,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4000,13 +4022,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4014,13 +4036,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4028,13 +4050,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4042,13 +4064,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -4056,13 +4078,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -4070,13 +4092,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -4084,13 +4106,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -4098,13 +4120,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -4112,13 +4134,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -4126,13 +4148,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -4140,13 +4162,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4154,13 +4176,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -4168,33 +4190,33 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F56" s="3">
         <v>262</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4202,33 +4224,33 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F58" s="3">
         <v>191</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -4236,13 +4258,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4250,13 +4272,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4264,13 +4286,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4278,13 +4300,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -4292,13 +4314,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4306,13 +4328,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -4320,33 +4342,33 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F66" s="3">
         <v>145</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4354,148 +4376,148 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F68" s="3">
         <v>230</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F69" s="3">
         <v>3769</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F70" s="3">
         <v>25230</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F76" s="3">
         <v>17012</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4503,13 +4525,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -4517,33 +4539,33 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F79" s="3">
         <v>774</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -4551,33 +4573,33 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F81" s="3">
         <v>8646</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4585,13 +4607,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4599,13 +4621,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4613,33 +4635,33 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F85" s="3">
         <v>28</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C86" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4647,13 +4669,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4661,13 +4683,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -4675,33 +4697,33 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F89" s="3">
         <v>9676</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -4709,13 +4731,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C91" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -4723,13 +4745,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -4737,13 +4759,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C93" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4751,13 +4773,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4765,53 +4787,53 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F95" s="3">
         <v>785</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F96" s="3">
         <v>766</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C97" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -4819,13 +4841,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C98" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -4833,13 +4855,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B99" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -4847,13 +4869,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -4861,13 +4883,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -4875,13 +4897,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B102" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C102" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -4889,13 +4911,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C103" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -4903,13 +4925,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B104" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -4917,33 +4939,33 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F105" s="3">
         <v>5785</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B106" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -4951,13 +4973,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B107" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C107" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -4965,13 +4987,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B108" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C108" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -4979,13 +5001,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B109" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C109" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -4993,53 +5015,53 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B110" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C110" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F110" s="3">
         <v>347</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B111" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C111" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F111" s="3">
         <v>854</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B112" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -5047,13 +5069,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -5061,13 +5083,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -5075,33 +5097,33 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C115" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F115" s="3">
         <v>211</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B116" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C116" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -5109,13 +5131,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C117" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -5123,13 +5145,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -5137,13 +5159,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -5151,13 +5173,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C120" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -5165,13 +5187,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B121" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C121" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -5179,13 +5201,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B122" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C122" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -5193,13 +5215,13 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B123" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -5207,13 +5229,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C124" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -5221,13 +5243,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B125" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C125" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -5235,93 +5257,93 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B126" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F126" s="3">
         <v>711</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B127" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C127" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F127" s="3">
         <v>14773</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B128" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C128" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F128" s="3">
         <v>17054</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B129" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C129" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F129" s="3">
         <v>233</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B130" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C130" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -5329,33 +5351,33 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B131" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F131" s="3">
         <v>826</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B132" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C132" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -5363,13 +5385,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B133" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C133" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -5377,13 +5399,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B134" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C134" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -5391,13 +5413,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C135" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -5405,13 +5427,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B136" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C136" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -5419,33 +5441,33 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B137" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C137" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F137" s="3">
         <v>33788</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B138" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C138" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -5453,13 +5475,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B139" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C139" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -5467,13 +5489,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B140" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C140" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -5481,13 +5503,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B141" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C141" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -5495,13 +5517,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B142" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C142" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -5509,13 +5531,13 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B143" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C143" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -5523,13 +5545,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B144" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C144" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -5537,13 +5559,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B145" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C145" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -5551,33 +5573,33 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B146" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F146" s="3">
         <v>30971</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -5585,33 +5607,33 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F148" s="3">
         <v>928</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B149" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C149" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -5619,13 +5641,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B150" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C150" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -5633,56 +5655,56 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B151" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C151" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D151" t="s">
         <v>32</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F151" s="3">
         <v>1183</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B152" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C152" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F152" s="3">
         <v>407199</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B153" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C153" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -5690,13 +5712,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B154" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C154" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -5704,13 +5726,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B155" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C155" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -5718,33 +5740,33 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B156" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C156" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F156" s="3">
         <v>17070</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B157" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C157" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -5752,53 +5774,53 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B158" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C158" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F158" s="3">
         <v>403</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B159" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C159" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F159" s="3">
         <v>159</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B160" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C160" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -5806,13 +5828,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B161" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C161" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -5820,13 +5842,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B162" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C162" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -5834,13 +5856,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B163" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C163" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -5848,13 +5870,13 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B164" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C164" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -5862,13 +5884,13 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B165" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C165" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -5876,13 +5898,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B166" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C166" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -5890,33 +5912,33 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B167" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C167" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F167" s="3">
         <v>215</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B168" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C168" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -5924,13 +5946,13 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B169" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C169" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -5938,53 +5960,53 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B170" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C170" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F170" s="3">
         <v>238</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B171" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C171" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F171" s="3">
         <v>1041</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B172" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C172" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -5992,13 +6014,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B173" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C173" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -6006,33 +6028,33 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B174" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C174" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F174" s="3">
         <v>958</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B175" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C175" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -6040,13 +6062,13 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B176" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C176" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -6054,33 +6076,33 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B177" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C177" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F177" s="3">
         <v>858</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B178" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C178" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -6088,13 +6110,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B179" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C179" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -6102,13 +6124,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B180" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C180" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -6116,33 +6138,33 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B181" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C181" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F181" s="3">
         <v>863</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B182" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C182" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -6150,13 +6172,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B183" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C183" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -6164,13 +6186,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B184" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -6178,33 +6200,33 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B185" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C185" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F185" s="3">
         <v>754</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B186" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C186" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -6212,13 +6234,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B187" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C187" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -6226,13 +6248,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B188" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C188" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -6240,13 +6262,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B189" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C189" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -6254,13 +6276,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B190" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C190" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -6268,13 +6290,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B191" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C191" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -6282,13 +6304,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B192" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C192" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -6296,13 +6318,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B193" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C193" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -6310,13 +6332,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B194" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C194" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -6324,13 +6346,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B195" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C195" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -6338,56 +6360,56 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B196" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C196" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F196" s="3">
         <v>25305</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B197" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C197" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D197" t="s">
         <v>32</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F197" s="3">
         <v>55614051</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B198" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C198" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -6395,33 +6417,33 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B199" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C199" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F199" s="3">
         <v>686</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B200" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C200" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -6429,107 +6451,119 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B201" t="s">
-        <v>641</v>
-      </c>
-      <c r="C201" t="s">
         <v>642</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="D201" t="s">
         <v>32</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F201" s="3">
         <v>27778324</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>643</v>
-      </c>
-      <c r="B202" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="B202" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D202" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B203" t="s">
-        <v>646</v>
+        <v>648</v>
+      </c>
+      <c r="C203" t="s">
+        <v>195</v>
+      </c>
+      <c r="D203" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B204" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C204" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B205" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B206" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C206" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B207" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C207" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B208" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B209" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C209" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -6553,6 +6587,10 @@
     <hyperlink ref="C94" r:id="rId14" display="http://www.wikidata.org/entity/Q38"/>
     <hyperlink ref="C208" r:id="rId15" display="http://www.wikidata.org/entity/Q953"/>
     <hyperlink ref="C205" r:id="rId16" display="http://www.wikidata.org/entity/Q19929796"/>
+    <hyperlink ref="C14" r:id="rId17" display="http://www.wikidata.org/entity/Q21203"/>
+    <hyperlink ref="C15" r:id="rId18" display="http://www.wikidata.org/entity/Q7671680"/>
+    <hyperlink ref="C201" r:id="rId19" display="http://www.wikidata.org/entity/Q27778324"/>
+    <hyperlink ref="C202" r:id="rId20" display="http://www.wikidata.org/entity/Q8268"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries.xlsx
+++ b/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries.xlsx
@@ -4,15 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="13020" activeTab="2"/>
+    <workbookView windowWidth="28440" windowHeight="13040" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="area_type" sheetId="1" r:id="rId1"/>
-    <sheet name="label_type" sheetId="2" r:id="rId2"/>
-    <sheet name="label_country" sheetId="3" r:id="rId3"/>
+    <sheet name="artist_type" sheetId="4" r:id="rId2"/>
+    <sheet name="instrument_type" sheetId="5" r:id="rId3"/>
+    <sheet name="label_type" sheetId="2" r:id="rId4"/>
+    <sheet name="label_country" sheetId="3" r:id="rId5"/>
+    <sheet name="place_type" sheetId="6" r:id="rId6"/>
+    <sheet name="release-group_primary-type" sheetId="7" r:id="rId7"/>
+    <sheet name="release-group_secondary-types" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">label_country!$A$1:$F$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">label_country!$A$1:$F$209</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="742">
   <si>
     <t>type</t>
   </si>
@@ -91,6 +96,81 @@
     <t>https://www.wikidata.org/wiki/Q15284</t>
   </si>
   <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q95074</t>
+  </si>
+  <si>
+    <t>Choir</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q131186</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q83478</t>
+  </si>
+  <si>
+    <t>Orchestra</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q42998</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/215627</t>
+  </si>
+  <si>
+    <t>electronic musical instrument</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1327500</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>https://musicbrainz.org/doc/Instrument#Ensemble</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>https://musicbrainz.org/doc/Instrument#Family</t>
+  </si>
+  <si>
+    <t>Other instrument</t>
+  </si>
+  <si>
+    <t>https://musicbrainz.org/doc/Instrument#Other_instrument</t>
+  </si>
+  <si>
+    <t>percussion instrument</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q133163</t>
+  </si>
+  <si>
+    <t>string instrument</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1798603</t>
+  </si>
+  <si>
+    <t>wind instrument</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q173453</t>
+  </si>
+  <si>
     <t>uncertainOrCertain</t>
   </si>
   <si>
@@ -2033,6 +2113,156 @@
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q954</t>
+  </si>
+  <si>
+    <t>Amphitheatre</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q54831</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q622425</t>
+  </si>
+  <si>
+    <t>Concert hall / Theatre</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q10547643</t>
+  </si>
+  <si>
+    <t>Educational institution</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q2385804</t>
+  </si>
+  <si>
+    <t>Festival stage</t>
+  </si>
+  <si>
+    <t>https://musicbrainz.org/doc/Place#Festival_stage</t>
+  </si>
+  <si>
+    <t>Indoor arena</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q27951514</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q22698</t>
+  </si>
+  <si>
+    <t>Pressing plant</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q58210857</t>
+  </si>
+  <si>
+    <t>Religious building</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24398318</t>
+  </si>
+  <si>
+    <t>Stadium</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q483110</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q746628</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q17350442</t>
+  </si>
+  <si>
+    <t>primary-type</t>
+  </si>
+  <si>
+    <t>primary-type_uri</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q482994</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q11854631</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q169930</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q134556</t>
+  </si>
+  <si>
+    <t>secondary-types</t>
+  </si>
+  <si>
+    <t>secondary-types_uri</t>
+  </si>
+  <si>
+    <t>Audio drama</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q109349450</t>
+  </si>
+  <si>
+    <t>Audiobook</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q106833</t>
+  </si>
+  <si>
+    <t>Compilation</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>DJ-mix</t>
+  </si>
+  <si>
+    <t>Field recording</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Mixtape/Street</t>
+  </si>
+  <si>
+    <t>Remix</t>
+  </si>
+  <si>
+    <t>Soundtrack</t>
+  </si>
+  <si>
+    <t>Spokenword</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2275,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2070,6 +2300,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.15"/>
       <name val="Calibri"/>
@@ -2084,11 +2322,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2558,13 +2795,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2573,119 +2807,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2695,14 +2932,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3249,7 +3495,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -3259,15 +3505,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -3275,7 +3521,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -3283,7 +3529,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -3291,7 +3537,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -3299,12 +3545,12 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -3312,7 +3558,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -3320,7 +3566,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -3328,7 +3574,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -3336,8 +3582,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3346,6 +3592,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.5390625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.wikidata.org/entity/Q95074" tooltip="http://www.wikidata.org/entity/Q95074"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.wikidata.org/entity/Q131186"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://www.wikidata.org/entity/Q83478"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://www.wikidata.org/entity/Q42998"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://www.wikidata.org/entity/215627"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.78125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://musicbrainz.org/doc/Instrument#Ensemble" tooltip="https://musicbrainz.org/doc/Instrument#Ensemble"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://musicbrainz.org/doc/Instrument#Family" tooltip="https://musicbrainz.org/doc/Instrument#Family"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://musicbrainz.org/doc/Instrument#Other_instrument" tooltip="https://musicbrainz.org/doc/Instrument#Other_instrument"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C11"/>
@@ -3362,100 +3777,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
+      <c r="A2" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
+      <c r="A3" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
+      <c r="A4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
+      <c r="A5" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
+      <c r="A6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
+      <c r="A7" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>35</v>
+      <c r="A9" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
+      <c r="A10" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>39</v>
+      <c r="A11" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3464,17 +3879,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C175" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D203" sqref="D203"/>
+      <selection pane="bottomRight" activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -3487,3083 +3902,3083 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" s="3">
+        <v>232</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="5">
         <v>262</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>207</v>
+      <c r="G56" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F58" s="3">
+        <v>239</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="5">
         <v>191</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>214</v>
+      <c r="G58" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+        <v>242</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
-        <v>226</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+        <v>254</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F66" s="3">
+        <v>263</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" s="5">
         <v>145</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>238</v>
+      <c r="G66" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" s="3">
+        <v>269</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="5">
         <v>230</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>244</v>
+      <c r="G68" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B69" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" s="3">
+        <v>272</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" s="5">
         <v>3769</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>247</v>
+      <c r="G69" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F70" s="3">
+        <v>275</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" s="5">
         <v>25230</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>250</v>
+      <c r="G70" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76" s="3">
+        <v>293</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" s="5">
         <v>17012</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>268</v>
+      <c r="G76" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B77" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C77" t="s">
-        <v>271</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79" s="3">
+        <v>302</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="5">
         <v>774</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>277</v>
+      <c r="G79" s="5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C80" t="s">
-        <v>280</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F81" s="3">
+        <v>308</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="5">
         <v>8646</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>283</v>
+      <c r="G81" s="5" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+        <v>311</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B84" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+        <v>317</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C85" t="s">
-        <v>295</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F85" s="3">
+        <v>320</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F85" s="5">
         <v>28</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>295</v>
+      <c r="G85" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C86" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+        <v>323</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C87" t="s">
-        <v>301</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
-        <v>304</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F89" s="3">
+        <v>332</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" s="5">
         <v>9676</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>307</v>
+      <c r="G89" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C91" t="s">
-        <v>313</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C92" t="s">
-        <v>316</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="B93" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B94" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="B95" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C95" t="s">
-        <v>325</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F95" s="3">
+        <v>350</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" s="5">
         <v>785</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>325</v>
+      <c r="G95" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B96" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C96" t="s">
-        <v>328</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F96" s="3">
+        <v>353</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" s="5">
         <v>766</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>328</v>
+      <c r="G96" s="5" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>331</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+        <v>356</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B98" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C98" t="s">
-        <v>334</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+        <v>359</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B99" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>337</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+        <v>362</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+        <v>365</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
-        <v>343</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s">
-        <v>346</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="B103" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C103" t="s">
-        <v>349</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
+        <v>374</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
-        <v>352</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+        <v>377</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B105" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C105" t="s">
-        <v>355</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F105" s="3">
+        <v>380</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" s="5">
         <v>5785</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>355</v>
+      <c r="G105" s="5" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s">
-        <v>358</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+        <v>383</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C107" t="s">
-        <v>361</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+        <v>386</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B108" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s">
-        <v>364</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+        <v>389</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C109" t="s">
-        <v>367</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+        <v>392</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C110" t="s">
-        <v>370</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F110" s="3">
+        <v>395</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" s="5">
         <v>347</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>370</v>
+      <c r="G110" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B111" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F111" s="3">
+        <v>398</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="5">
         <v>854</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>373</v>
+      <c r="G111" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B112" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="C112" t="s">
-        <v>376</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B113" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C113" t="s">
-        <v>379</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+        <v>404</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B114" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C114" t="s">
-        <v>382</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B115" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C115" t="s">
-        <v>385</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F115" s="3">
+        <v>410</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" s="5">
         <v>211</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>385</v>
+      <c r="G115" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B116" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="C116" t="s">
-        <v>388</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
+        <v>413</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="C117" t="s">
-        <v>391</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+        <v>416</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="C118" t="s">
-        <v>394</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+        <v>419</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B119" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C119" t="s">
-        <v>397</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+        <v>422</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C120" t="s">
-        <v>400</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+        <v>425</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C121" t="s">
-        <v>403</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+        <v>428</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C122" t="s">
-        <v>406</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+        <v>431</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B123" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="C123" t="s">
-        <v>409</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="B124" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C124" t="s">
-        <v>412</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+        <v>437</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B125" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="C125" t="s">
-        <v>415</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+        <v>440</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="B126" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="C126" t="s">
-        <v>418</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F126" s="3">
+        <v>443</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F126" s="5">
         <v>711</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>418</v>
+      <c r="G126" s="5" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="B127" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C127" t="s">
-        <v>421</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F127" s="3">
+        <v>446</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F127" s="5">
         <v>14773</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>421</v>
+      <c r="G127" s="5" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B128" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C128" t="s">
-        <v>424</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F128" s="3">
+        <v>449</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F128" s="5">
         <v>17054</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>424</v>
+      <c r="G128" s="5" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="B129" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C129" t="s">
-        <v>427</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F129" s="3">
+        <v>452</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>427</v>
+      <c r="F129" s="5">
+        <v>233</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="B130" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="C130" t="s">
-        <v>430</v>
-      </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+        <v>455</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="B131" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="C131" t="s">
-        <v>433</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F131" s="3">
+        <v>458</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F131" s="5">
         <v>826</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>433</v>
+      <c r="G131" s="5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="B132" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="C132" t="s">
-        <v>436</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+        <v>461</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="B133" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="C133" t="s">
-        <v>439</v>
-      </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
+        <v>464</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="B134" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
-      </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+        <v>467</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="B135" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="C135" t="s">
-        <v>445</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="B136" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
-      </c>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="B137" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="C137" t="s">
-        <v>451</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F137" s="3">
+        <v>476</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F137" s="5">
         <v>33788</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>451</v>
+      <c r="G137" s="5" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="B138" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="C138" t="s">
-        <v>454</v>
-      </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+        <v>479</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="B139" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="C139" t="s">
-        <v>457</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
+        <v>482</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="B140" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C140" t="s">
-        <v>460</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="B141" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="C141" t="s">
-        <v>463</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
+        <v>488</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="B142" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="C142" t="s">
-        <v>466</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="B143" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="C143" t="s">
-        <v>469</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
+        <v>494</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="B144" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="C144" t="s">
-        <v>472</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+        <v>497</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="B145" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="C145" t="s">
-        <v>475</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="B146" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C146" t="s">
-        <v>478</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F146" s="3">
+        <v>503</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F146" s="5">
         <v>30971</v>
       </c>
-      <c r="G146" s="3" t="s">
-        <v>478</v>
+      <c r="G146" s="5" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="B147" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C147" t="s">
-        <v>481</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+        <v>506</v>
+      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="B148" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="C148" t="s">
-        <v>484</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F148" s="3">
+        <v>509</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F148" s="5">
         <v>928</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>484</v>
+      <c r="G148" s="5" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="B149" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="C149" t="s">
-        <v>487</v>
-      </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
+        <v>512</v>
+      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="B150" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="C150" t="s">
-        <v>490</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
+        <v>515</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="B151" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="C151" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="D151" t="s">
-        <v>32</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F151" s="3">
+        <v>57</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F151" s="5">
         <v>1183</v>
       </c>
-      <c r="G151" s="3" t="s">
-        <v>493</v>
+      <c r="G151" s="5" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B152" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C152" t="s">
-        <v>496</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F152" s="3">
+        <v>521</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F152" s="5">
         <v>407199</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>496</v>
+      <c r="G152" s="5" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="B153" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="C153" t="s">
-        <v>499</v>
-      </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
+        <v>524</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="B154" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="C154" t="s">
-        <v>502</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
+        <v>527</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="B155" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C155" t="s">
-        <v>505</v>
-      </c>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
+        <v>530</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="B156" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="C156" t="s">
-        <v>508</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F156" s="3">
+        <v>533</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F156" s="5">
         <v>17070</v>
       </c>
-      <c r="G156" s="3" t="s">
-        <v>508</v>
+      <c r="G156" s="5" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="B157" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C157" t="s">
-        <v>511</v>
-      </c>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
+        <v>536</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="B158" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="C158" t="s">
-        <v>514</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F158" s="3">
+        <v>539</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F158" s="5">
         <v>403</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>514</v>
+      <c r="G158" s="5" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="B159" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C159" t="s">
-        <v>517</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F159" s="3">
+        <v>542</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F159" s="5">
         <v>159</v>
       </c>
-      <c r="G159" s="3" t="s">
-        <v>517</v>
+      <c r="G159" s="5" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="B160" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="C160" t="s">
-        <v>520</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
+        <v>545</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="B161" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="C161" t="s">
-        <v>523</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
+        <v>548</v>
+      </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="B162" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="C162" t="s">
-        <v>526</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
+        <v>551</v>
+      </c>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="B163" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C163" t="s">
-        <v>529</v>
-      </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
+        <v>554</v>
+      </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="B164" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="C164" t="s">
-        <v>532</v>
-      </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+        <v>557</v>
+      </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="B165" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="C165" t="s">
-        <v>535</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+        <v>560</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="B166" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="C166" t="s">
-        <v>538</v>
-      </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="B167" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="C167" t="s">
-        <v>541</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F167" s="3">
+        <v>566</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F167" s="5">
         <v>215</v>
       </c>
-      <c r="G167" s="3" t="s">
-        <v>541</v>
+      <c r="G167" s="5" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="B168" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="C168" t="s">
-        <v>544</v>
-      </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+        <v>569</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="B169" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="C169" t="s">
-        <v>547</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+        <v>572</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="B170" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="C170" t="s">
-        <v>550</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F170" s="3">
+        <v>575</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F170" s="5">
         <v>238</v>
       </c>
-      <c r="G170" s="3" t="s">
-        <v>550</v>
+      <c r="G170" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="B171" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="C171" t="s">
-        <v>553</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F171" s="3">
+        <v>578</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F171" s="5">
         <v>1041</v>
       </c>
-      <c r="G171" s="3" t="s">
-        <v>553</v>
+      <c r="G171" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B172" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="C172" t="s">
-        <v>556</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+        <v>581</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="B173" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="C173" t="s">
-        <v>559</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="B174" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="C174" t="s">
-        <v>562</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F174" s="3">
+        <v>587</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F174" s="5">
         <v>958</v>
       </c>
-      <c r="G174" s="3" t="s">
-        <v>562</v>
+      <c r="G174" s="5" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="B175" t="s">
-        <v>564</v>
-      </c>
-      <c r="C175" t="s">
-        <v>565</v>
-      </c>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+        <v>589</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="B176" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="C176" t="s">
-        <v>568</v>
-      </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+        <v>593</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="B177" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="C177" t="s">
-        <v>571</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F177" s="3">
+        <v>596</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F177" s="5">
         <v>858</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>571</v>
+      <c r="G177" s="5" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="B178" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="C178" t="s">
-        <v>574</v>
-      </c>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+        <v>599</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="B179" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="C179" t="s">
-        <v>577</v>
-      </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+        <v>602</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="B180" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="C180" t="s">
-        <v>580</v>
-      </c>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+        <v>605</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="B181" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C181" t="s">
-        <v>583</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F181" s="3">
+        <v>608</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F181" s="5">
         <v>863</v>
       </c>
-      <c r="G181" s="3" t="s">
-        <v>583</v>
+      <c r="G181" s="5" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="B182" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="C182" t="s">
-        <v>586</v>
-      </c>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
+        <v>611</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="B183" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C183" t="s">
-        <v>589</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
+        <v>614</v>
+      </c>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="B184" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="C184" t="s">
-        <v>592</v>
-      </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
+        <v>617</v>
+      </c>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="B185" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="C185" t="s">
-        <v>595</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F185" s="3">
+        <v>620</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F185" s="5">
         <v>754</v>
       </c>
-      <c r="G185" s="3" t="s">
-        <v>595</v>
+      <c r="G185" s="5" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="B186" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="C186" t="s">
-        <v>598</v>
-      </c>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
+        <v>623</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="B187" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C187" t="s">
-        <v>601</v>
-      </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
+        <v>626</v>
+      </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="B188" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="C188" t="s">
-        <v>604</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
+        <v>629</v>
+      </c>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="B189" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="C189" t="s">
-        <v>607</v>
-      </c>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
+        <v>632</v>
+      </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B190" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="C190" t="s">
-        <v>610</v>
-      </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+        <v>635</v>
+      </c>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B191" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="C191" t="s">
-        <v>613</v>
-      </c>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+        <v>638</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="B192" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="C192" t="s">
-        <v>616</v>
-      </c>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
+        <v>641</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="B193" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="C193" t="s">
-        <v>619</v>
-      </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
+        <v>644</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="B194" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="C194" t="s">
-        <v>622</v>
-      </c>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+        <v>647</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="B195" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C195" t="s">
-        <v>625</v>
-      </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+        <v>650</v>
+      </c>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="B196" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="C196" t="s">
-        <v>628</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F196" s="3">
+        <v>653</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F196" s="5">
         <v>25305</v>
       </c>
-      <c r="G196" s="3" t="s">
-        <v>628</v>
+      <c r="G196" s="5" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="B197" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="C197" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="D197" t="s">
-        <v>32</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F197" s="3">
+        <v>57</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F197" s="5">
         <v>55614051</v>
       </c>
-      <c r="G197" s="3" t="s">
-        <v>631</v>
+      <c r="G197" s="5" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="B198" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="C198" t="s">
-        <v>634</v>
-      </c>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+        <v>659</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="B199" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="C199" t="s">
-        <v>637</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F199" s="3">
+        <v>662</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F199" s="5">
         <v>686</v>
       </c>
-      <c r="G199" s="3" t="s">
-        <v>637</v>
+      <c r="G199" s="5" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="B200" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="C200" t="s">
-        <v>640</v>
-      </c>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+        <v>665</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="B201" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="D201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F201" s="3">
+        <v>57</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F201" s="5">
         <v>27778324</v>
       </c>
-      <c r="G201" s="3" t="s">
-        <v>643</v>
+      <c r="G201" s="5" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>644</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>645</v>
+        <v>669</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>670</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="D202" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="B203" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="C203" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D203" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="B204" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C204" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="B205" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="B206" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="C206" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="B207" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C207" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="B208" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="B209" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="C209" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -6591,6 +7006,346 @@
     <hyperlink ref="C15" r:id="rId18" display="http://www.wikidata.org/entity/Q7671680"/>
     <hyperlink ref="C201" r:id="rId19" display="http://www.wikidata.org/entity/Q27778324"/>
     <hyperlink ref="C202" r:id="rId20" display="http://www.wikidata.org/entity/Q8268"/>
+    <hyperlink ref="C175" r:id="rId21" display="http://www.wikidata.org/entity/Q15180"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.234375" customWidth="1"/>
+    <col min="2" max="2" width="36.5859375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>710</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.wikidata.org/entity/Q54831" tooltip="http://www.wikidata.org/entity/Q54831"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.wikidata.org/entity/Q622425"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://www.wikidata.org/entity/Q10547643"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://www.wikidata.org/entity/Q2385804"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://musicbrainz.org/doc/Place#Festival_stage"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://www.wikidata.org/entity/Q27951514"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://www.wikidata.org/entity/Q22698"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://www.wikidata.org/entity/Q58210857"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://www.wikidata.org/entity/Q24398318"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://www.wikidata.org/entity/Q483110"/>
+    <hyperlink ref="B13" r:id="rId11" display="http://www.wikidata.org/entity/Q746628"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://www.wikidata.org/entity/Q17350442"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.2734375" customWidth="1"/>
+    <col min="2" max="2" width="19.0078125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>738</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>740</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>741</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.wikidata.org/entity/Q109349450"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.wikidata.org/entity/Q106833"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries.xlsx
+++ b/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="13040" activeTab="7"/>
+    <workbookView windowHeight="12500" tabRatio="760" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="area_type" sheetId="1" r:id="rId1"/>
@@ -2922,7 +2922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2930,9 +2930,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
@@ -3505,15 +3502,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -3521,7 +3518,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -3529,7 +3526,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -3537,7 +3534,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -3545,12 +3542,12 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -3558,7 +3555,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -3566,7 +3563,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -3574,7 +3571,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -3582,8 +3579,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3606,23 +3603,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3630,7 +3627,7 @@
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3638,7 +3635,7 @@
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3646,12 +3643,12 @@
       </c>
     </row>
     <row r="6" ht="18" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3686,10 +3683,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3705,7 +3702,7 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3713,7 +3710,7 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3721,7 +3718,7 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3777,10 +3774,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -3788,7 +3785,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -3796,7 +3793,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -3804,7 +3801,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -3812,7 +3809,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
@@ -3820,7 +3817,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
@@ -3828,7 +3825,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
@@ -3839,7 +3836,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
@@ -3850,7 +3847,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B9" t="s">
@@ -3858,7 +3855,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
@@ -3866,7 +3863,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B11" t="s">
@@ -3902,19 +3899,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -4193,9 +4190,9 @@
       <c r="C26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -4207,9 +4204,9 @@
       <c r="C27" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -4221,9 +4218,9 @@
       <c r="C28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
@@ -4235,9 +4232,9 @@
       <c r="C29" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
@@ -4249,9 +4246,9 @@
       <c r="C30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
@@ -4263,9 +4260,9 @@
       <c r="C31" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
@@ -4277,9 +4274,9 @@
       <c r="C32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
@@ -4291,9 +4288,9 @@
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
@@ -4305,9 +4302,9 @@
       <c r="C34" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
@@ -4319,9 +4316,9 @@
       <c r="C35" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
@@ -4333,9 +4330,9 @@
       <c r="C36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
@@ -4347,9 +4344,9 @@
       <c r="C37" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
@@ -4361,9 +4358,9 @@
       <c r="C38" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
@@ -4375,9 +4372,9 @@
       <c r="C39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -4389,9 +4386,9 @@
       <c r="C40" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
@@ -4403,9 +4400,9 @@
       <c r="C41" t="s">
         <v>187</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
@@ -4417,9 +4414,9 @@
       <c r="C42" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
@@ -4431,9 +4428,9 @@
       <c r="C43" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
@@ -4445,9 +4442,9 @@
       <c r="C44" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
@@ -4459,9 +4456,9 @@
       <c r="C45" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
@@ -4473,9 +4470,9 @@
       <c r="C46" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
@@ -4487,9 +4484,9 @@
       <c r="C47" t="s">
         <v>205</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
@@ -4501,9 +4498,9 @@
       <c r="C48" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
@@ -4515,9 +4512,9 @@
       <c r="C49" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
@@ -4529,9 +4526,9 @@
       <c r="C50" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
@@ -4543,9 +4540,9 @@
       <c r="C51" t="s">
         <v>217</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
@@ -4557,9 +4554,9 @@
       <c r="C52" t="s">
         <v>220</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
@@ -4571,9 +4568,9 @@
       <c r="C53" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
@@ -4585,9 +4582,9 @@
       <c r="C54" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
@@ -4599,9 +4596,9 @@
       <c r="C55" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
@@ -4613,13 +4610,13 @@
       <c r="C56" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>262</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4633,9 +4630,9 @@
       <c r="C57" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
@@ -4647,13 +4644,13 @@
       <c r="C58" t="s">
         <v>239</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>191</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4667,9 +4664,9 @@
       <c r="C59" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
@@ -4681,9 +4678,9 @@
       <c r="C60" t="s">
         <v>245</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
@@ -4695,9 +4692,9 @@
       <c r="C61" t="s">
         <v>248</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
@@ -4709,9 +4706,9 @@
       <c r="C62" t="s">
         <v>251</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
@@ -4723,9 +4720,9 @@
       <c r="C63" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
@@ -4737,9 +4734,9 @@
       <c r="C64" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
@@ -4751,9 +4748,9 @@
       <c r="C65" t="s">
         <v>260</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
@@ -4765,13 +4762,13 @@
       <c r="C66" t="s">
         <v>263</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>145</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4785,9 +4782,9 @@
       <c r="C67" t="s">
         <v>266</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
@@ -4799,13 +4796,13 @@
       <c r="C68" t="s">
         <v>269</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>230</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4819,13 +4816,13 @@
       <c r="C69" t="s">
         <v>272</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <v>3769</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4839,13 +4836,13 @@
       <c r="C70" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>25230</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4914,13 +4911,13 @@
       <c r="C76" t="s">
         <v>293</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <v>17012</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4934,9 +4931,9 @@
       <c r="C77" t="s">
         <v>296</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
@@ -4948,9 +4945,9 @@
       <c r="C78" t="s">
         <v>299</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
@@ -4962,13 +4959,13 @@
       <c r="C79" t="s">
         <v>302</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <v>774</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="4" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4982,9 +4979,9 @@
       <c r="C80" t="s">
         <v>305</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
@@ -4996,13 +4993,13 @@
       <c r="C81" t="s">
         <v>308</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <v>8646</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5016,9 +5013,9 @@
       <c r="C82" t="s">
         <v>311</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
@@ -5030,9 +5027,9 @@
       <c r="C83" t="s">
         <v>314</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
@@ -5044,9 +5041,9 @@
       <c r="C84" t="s">
         <v>317</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -5058,13 +5055,13 @@
       <c r="C85" t="s">
         <v>320</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>28</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5078,9 +5075,9 @@
       <c r="C86" t="s">
         <v>323</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
@@ -5092,9 +5089,9 @@
       <c r="C87" t="s">
         <v>326</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
@@ -5106,9 +5103,9 @@
       <c r="C88" t="s">
         <v>329</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
@@ -5120,13 +5117,13 @@
       <c r="C89" t="s">
         <v>332</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <v>9676</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="4" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5140,9 +5137,9 @@
       <c r="C90" t="s">
         <v>335</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
@@ -5154,9 +5151,9 @@
       <c r="C91" t="s">
         <v>338</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
@@ -5168,9 +5165,9 @@
       <c r="C92" t="s">
         <v>341</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
@@ -5182,9 +5179,9 @@
       <c r="C93" t="s">
         <v>344</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
@@ -5196,9 +5193,9 @@
       <c r="C94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
@@ -5210,13 +5207,13 @@
       <c r="C95" t="s">
         <v>350</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <v>785</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5230,13 +5227,13 @@
       <c r="C96" t="s">
         <v>353</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <v>766</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="4" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5250,9 +5247,9 @@
       <c r="C97" t="s">
         <v>356</v>
       </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
@@ -5264,9 +5261,9 @@
       <c r="C98" t="s">
         <v>359</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
@@ -5278,9 +5275,9 @@
       <c r="C99" t="s">
         <v>362</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
@@ -5292,9 +5289,9 @@
       <c r="C100" t="s">
         <v>365</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
@@ -5306,9 +5303,9 @@
       <c r="C101" t="s">
         <v>368</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
@@ -5320,9 +5317,9 @@
       <c r="C102" t="s">
         <v>371</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
@@ -5334,9 +5331,9 @@
       <c r="C103" t="s">
         <v>374</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
@@ -5348,9 +5345,9 @@
       <c r="C104" t="s">
         <v>377</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
@@ -5362,13 +5359,13 @@
       <c r="C105" t="s">
         <v>380</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="4">
         <v>5785</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="4" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5382,9 +5379,9 @@
       <c r="C106" t="s">
         <v>383</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
@@ -5396,9 +5393,9 @@
       <c r="C107" t="s">
         <v>386</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
@@ -5410,9 +5407,9 @@
       <c r="C108" t="s">
         <v>389</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
@@ -5424,9 +5421,9 @@
       <c r="C109" t="s">
         <v>392</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
@@ -5438,13 +5435,13 @@
       <c r="C110" t="s">
         <v>395</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="4">
         <v>347</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="4" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5458,13 +5455,13 @@
       <c r="C111" t="s">
         <v>398</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="4">
         <v>854</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="4" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5478,9 +5475,9 @@
       <c r="C112" t="s">
         <v>401</v>
       </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
@@ -5492,9 +5489,9 @@
       <c r="C113" t="s">
         <v>404</v>
       </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
@@ -5506,9 +5503,9 @@
       <c r="C114" t="s">
         <v>407</v>
       </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
@@ -5520,13 +5517,13 @@
       <c r="C115" t="s">
         <v>410</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="4">
         <v>211</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="4" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5540,9 +5537,9 @@
       <c r="C116" t="s">
         <v>413</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
@@ -5554,9 +5551,9 @@
       <c r="C117" t="s">
         <v>416</v>
       </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
@@ -5568,9 +5565,9 @@
       <c r="C118" t="s">
         <v>419</v>
       </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
@@ -5582,9 +5579,9 @@
       <c r="C119" t="s">
         <v>422</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
@@ -5596,9 +5593,9 @@
       <c r="C120" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
@@ -5610,9 +5607,9 @@
       <c r="C121" t="s">
         <v>428</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
@@ -5624,9 +5621,9 @@
       <c r="C122" t="s">
         <v>431</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
@@ -5638,9 +5635,9 @@
       <c r="C123" t="s">
         <v>434</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
@@ -5652,9 +5649,9 @@
       <c r="C124" t="s">
         <v>437</v>
       </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
@@ -5666,9 +5663,9 @@
       <c r="C125" t="s">
         <v>440</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
@@ -5680,13 +5677,13 @@
       <c r="C126" t="s">
         <v>443</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <v>711</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G126" s="4" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5700,13 +5697,13 @@
       <c r="C127" t="s">
         <v>446</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <v>14773</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G127" s="4" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5720,13 +5717,13 @@
       <c r="C128" t="s">
         <v>449</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <v>17054</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="4" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5740,13 +5737,13 @@
       <c r="C129" t="s">
         <v>452</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="4">
         <v>233</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G129" s="4" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5760,9 +5757,9 @@
       <c r="C130" t="s">
         <v>455</v>
       </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
@@ -5774,13 +5771,13 @@
       <c r="C131" t="s">
         <v>458</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="4">
         <v>826</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="4" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5794,9 +5791,9 @@
       <c r="C132" t="s">
         <v>461</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
@@ -5808,9 +5805,9 @@
       <c r="C133" t="s">
         <v>464</v>
       </c>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
@@ -5822,9 +5819,9 @@
       <c r="C134" t="s">
         <v>467</v>
       </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
@@ -5836,9 +5833,9 @@
       <c r="C135" t="s">
         <v>470</v>
       </c>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
@@ -5850,9 +5847,9 @@
       <c r="C136" t="s">
         <v>473</v>
       </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
@@ -5864,13 +5861,13 @@
       <c r="C137" t="s">
         <v>476</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="4">
         <v>33788</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G137" s="4" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5884,9 +5881,9 @@
       <c r="C138" t="s">
         <v>479</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
@@ -5898,9 +5895,9 @@
       <c r="C139" t="s">
         <v>482</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
@@ -5912,9 +5909,9 @@
       <c r="C140" t="s">
         <v>485</v>
       </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
@@ -5926,9 +5923,9 @@
       <c r="C141" t="s">
         <v>488</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
@@ -5940,9 +5937,9 @@
       <c r="C142" t="s">
         <v>491</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
@@ -5954,9 +5951,9 @@
       <c r="C143" t="s">
         <v>494</v>
       </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
@@ -5968,9 +5965,9 @@
       <c r="C144" t="s">
         <v>497</v>
       </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
@@ -5982,9 +5979,9 @@
       <c r="C145" t="s">
         <v>500</v>
       </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
@@ -5996,13 +5993,13 @@
       <c r="C146" t="s">
         <v>503</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="4">
         <v>30971</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G146" s="4" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6016,9 +6013,9 @@
       <c r="C147" t="s">
         <v>506</v>
       </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
@@ -6030,13 +6027,13 @@
       <c r="C148" t="s">
         <v>509</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="4">
         <v>928</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G148" s="4" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6050,9 +6047,9 @@
       <c r="C149" t="s">
         <v>512</v>
       </c>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
@@ -6064,9 +6061,9 @@
       <c r="C150" t="s">
         <v>515</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
@@ -6081,13 +6078,13 @@
       <c r="D151" t="s">
         <v>57</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="4">
         <v>1183</v>
       </c>
-      <c r="G151" s="5" t="s">
+      <c r="G151" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6101,13 +6098,13 @@
       <c r="C152" t="s">
         <v>521</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="4">
         <v>407199</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G152" s="4" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6121,9 +6118,9 @@
       <c r="C153" t="s">
         <v>524</v>
       </c>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
@@ -6135,9 +6132,9 @@
       <c r="C154" t="s">
         <v>527</v>
       </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
@@ -6149,9 +6146,9 @@
       <c r="C155" t="s">
         <v>530</v>
       </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
@@ -6163,13 +6160,13 @@
       <c r="C156" t="s">
         <v>533</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156" s="4">
         <v>17070</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="G156" s="4" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6183,9 +6180,9 @@
       <c r="C157" t="s">
         <v>536</v>
       </c>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
@@ -6197,13 +6194,13 @@
       <c r="C158" t="s">
         <v>539</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="4">
         <v>403</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="G158" s="4" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6217,13 +6214,13 @@
       <c r="C159" t="s">
         <v>542</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="4">
         <v>159</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="G159" s="4" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6237,9 +6234,9 @@
       <c r="C160" t="s">
         <v>545</v>
       </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
@@ -6251,9 +6248,9 @@
       <c r="C161" t="s">
         <v>548</v>
       </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
@@ -6265,9 +6262,9 @@
       <c r="C162" t="s">
         <v>551</v>
       </c>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
@@ -6279,9 +6276,9 @@
       <c r="C163" t="s">
         <v>554</v>
       </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
@@ -6293,9 +6290,9 @@
       <c r="C164" t="s">
         <v>557</v>
       </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
@@ -6307,9 +6304,9 @@
       <c r="C165" t="s">
         <v>560</v>
       </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
@@ -6321,9 +6318,9 @@
       <c r="C166" t="s">
         <v>563</v>
       </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
@@ -6335,13 +6332,13 @@
       <c r="C167" t="s">
         <v>566</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F167" s="4">
         <v>215</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="G167" s="4" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6355,9 +6352,9 @@
       <c r="C168" t="s">
         <v>569</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
@@ -6369,9 +6366,9 @@
       <c r="C169" t="s">
         <v>572</v>
       </c>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
@@ -6383,13 +6380,13 @@
       <c r="C170" t="s">
         <v>575</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="4">
         <v>238</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="G170" s="4" t="s">
         <v>575</v>
       </c>
     </row>
@@ -6403,13 +6400,13 @@
       <c r="C171" t="s">
         <v>578</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171" s="4">
         <v>1041</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="G171" s="4" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6423,9 +6420,9 @@
       <c r="C172" t="s">
         <v>581</v>
       </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
@@ -6437,9 +6434,9 @@
       <c r="C173" t="s">
         <v>584</v>
       </c>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
@@ -6451,13 +6448,13 @@
       <c r="C174" t="s">
         <v>587</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F174" s="4">
         <v>958</v>
       </c>
-      <c r="G174" s="5" t="s">
+      <c r="G174" s="4" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6471,9 +6468,9 @@
       <c r="C175" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
@@ -6485,9 +6482,9 @@
       <c r="C176" t="s">
         <v>593</v>
       </c>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
@@ -6499,13 +6496,13 @@
       <c r="C177" t="s">
         <v>596</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F177" s="4">
         <v>858</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" s="4" t="s">
         <v>596</v>
       </c>
     </row>
@@ -6519,9 +6516,9 @@
       <c r="C178" t="s">
         <v>599</v>
       </c>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
@@ -6533,9 +6530,9 @@
       <c r="C179" t="s">
         <v>602</v>
       </c>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
@@ -6547,9 +6544,9 @@
       <c r="C180" t="s">
         <v>605</v>
       </c>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
@@ -6561,13 +6558,13 @@
       <c r="C181" t="s">
         <v>608</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F181" s="4">
         <v>863</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="G181" s="4" t="s">
         <v>608</v>
       </c>
     </row>
@@ -6581,9 +6578,9 @@
       <c r="C182" t="s">
         <v>611</v>
       </c>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
@@ -6595,9 +6592,9 @@
       <c r="C183" t="s">
         <v>614</v>
       </c>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
@@ -6609,9 +6606,9 @@
       <c r="C184" t="s">
         <v>617</v>
       </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
@@ -6623,13 +6620,13 @@
       <c r="C185" t="s">
         <v>620</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F185" s="5">
+      <c r="F185" s="4">
         <v>754</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="G185" s="4" t="s">
         <v>620</v>
       </c>
     </row>
@@ -6643,9 +6640,9 @@
       <c r="C186" t="s">
         <v>623</v>
       </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
@@ -6657,9 +6654,9 @@
       <c r="C187" t="s">
         <v>626</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
@@ -6671,9 +6668,9 @@
       <c r="C188" t="s">
         <v>629</v>
       </c>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
@@ -6685,9 +6682,9 @@
       <c r="C189" t="s">
         <v>632</v>
       </c>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
@@ -6699,9 +6696,9 @@
       <c r="C190" t="s">
         <v>635</v>
       </c>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
@@ -6713,9 +6710,9 @@
       <c r="C191" t="s">
         <v>638</v>
       </c>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
@@ -6727,9 +6724,9 @@
       <c r="C192" t="s">
         <v>641</v>
       </c>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
@@ -6741,9 +6738,9 @@
       <c r="C193" t="s">
         <v>644</v>
       </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
@@ -6755,9 +6752,9 @@
       <c r="C194" t="s">
         <v>647</v>
       </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
@@ -6769,9 +6766,9 @@
       <c r="C195" t="s">
         <v>650</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
@@ -6783,13 +6780,13 @@
       <c r="C196" t="s">
         <v>653</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F196" s="5">
+      <c r="F196" s="4">
         <v>25305</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="G196" s="4" t="s">
         <v>653</v>
       </c>
     </row>
@@ -6806,13 +6803,13 @@
       <c r="D197" t="s">
         <v>57</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F197" s="5">
+      <c r="F197" s="4">
         <v>55614051</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="G197" s="4" t="s">
         <v>656</v>
       </c>
     </row>
@@ -6826,9 +6823,9 @@
       <c r="C198" t="s">
         <v>659</v>
       </c>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
@@ -6840,13 +6837,13 @@
       <c r="C199" t="s">
         <v>662</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F199" s="5">
+      <c r="F199" s="4">
         <v>686</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G199" s="4" t="s">
         <v>662</v>
       </c>
     </row>
@@ -6860,9 +6857,9 @@
       <c r="C200" t="s">
         <v>665</v>
       </c>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
@@ -6877,13 +6874,13 @@
       <c r="D201" t="s">
         <v>57</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F201" s="5">
+      <c r="F201" s="4">
         <v>27778324</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="G201" s="4" t="s">
         <v>668</v>
       </c>
     </row>
@@ -6891,7 +6888,7 @@
       <c r="A202" t="s">
         <v>669</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>670</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -7029,10 +7026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -7043,7 +7040,7 @@
       <c r="A2" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>693</v>
       </c>
     </row>
@@ -7075,7 +7072,7 @@
       <c r="A6" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>701</v>
       </c>
     </row>
@@ -7178,10 +7175,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>717</v>
       </c>
     </row>
@@ -7229,13 +7226,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.2734375" customWidth="1"/>
-    <col min="2" max="2" width="19.0078125" customWidth="1"/>
+    <col min="2" max="2" width="35.0234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
